--- a/tests/data/demos/delivery_slip/report.xlsx
+++ b/tests/data/demos/delivery_slip/report.xlsx
@@ -544,8 +544,7 @@
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
